--- a/InputFiles/TC06_CDS_Filter_Study-CCDI.xlsx
+++ b/InputFiles/TC06_CDS_Filter_Study-CCDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\CDS Automation\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32188B4-886A-4745-A288-C12DA100409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B6A13-287E-4AC3-A566-7C0E1999A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -89,19 +89,6 @@
  ORDER By p.participant_id LIMIT 100</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;--(p:participant)&lt;--(samp:sample)
-WHERE s.study_name in ["Childhood Cancer Data Initiative (CCDI): Free the Data: Open Sharing of Comprehensive Genomic Childhood Cancer Datasets (Kansas)"]
-WITH p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
-RETURN  
- coalesce(samp.sample_id, '') as `Sample ID`,
- coalesce(p.participant_id,'') as `Participant ID`,
- coalesce(s.study_name, '') as `Study Name`,
- coalesce(s.phs_accession,'') as `Accession`,
- coalesce(tumor,'') as `Tumor`,
-coalesce(samp.sample_type,'') as `Analyte Type`
-ORDER By samp.sample_id LIMIT 100</t>
-  </si>
-  <si>
     <t>MATCH (s:study)&lt;--(p:participant)
 WHERE s.study_name in ["Childhood Cancer Data Initiative (CCDI): Free the Data: Open Sharing of Comprehensive Genomic Childhood Cancer Datasets (Kansas)"]
 OPTIONAL MATCH (p)&lt;--(samp:sample)
@@ -116,6 +103,19 @@
     coalesce(samp.sample_id, '') as `Sample ID`,
     coalesce(f.file_type, '') as `File Type`
    ORDER By f.file_name LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;--(p:participant)&lt;--(samp:sample)
+WHERE s.study_name in ["Childhood Cancer Data Initiative (CCDI): Free the Data: Open Sharing of Comprehensive Genomic Childhood Cancer Datasets (Kansas)"]
+WITH p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
+RETURN  
+ coalesce(samp.sample_id, '') as `Sample ID`,
+ coalesce(p.participant_id,'') as `Participant ID`,
+ coalesce(s.study_name, '') as `Study Name`,
+ coalesce(s.phs_accession,'') as `Accession`,
+coalesce(samp.sample_tumor_status,'') as `Tumor`,
+coalesce(samp.sample_type,'') as `Analyte Type`
+ORDER By samp.sample_id LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>

--- a/InputFiles/TC06_CDS_Filter_Study-CCDI.xlsx
+++ b/InputFiles/TC06_CDS_Filter_Study-CCDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\CDS Automation\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B6A13-287E-4AC3-A566-7C0E1999A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF316E98-2CF0-4D2C-BEC0-1DA7A4299F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>TabName</t>
   </si>
   <si>
-    <t>CasesTab</t>
-  </si>
-  <si>
     <t>SamplesTab</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
 coalesce(samp.sample_tumor_status,'') as `Tumor`,
 coalesce(samp.sample_type,'') as `Analyte Type`
 ORDER By samp.sample_id LIMIT 100</t>
+  </si>
+  <si>
+    <t>ParticipantsTab</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,53 +529,53 @@
     </row>
     <row r="2" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/InputFiles/TC06_CDS_Filter_Study-CCDI.xlsx
+++ b/InputFiles/TC06_CDS_Filter_Study-CCDI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\CDS Automation\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0717new\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF316E98-2CF0-4D2C-BEC0-1DA7A4299F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF56F6-C052-4E49-B82A-02BC56B14ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -76,19 +76,6 @@
     <t>MATCH (s:study)&lt;--(p:participant)
 WHERE s.study_name in ["Childhood Cancer Data Initiative (CCDI): Free the Data: Open Sharing of Comprehensive Genomic Childhood Cancer Datasets (Kansas)"]
 OPTIONAL MATCH (p)&lt;--(samp:sample)
-WITH p, s, collect(distinct samp.sample_id) as samp
-RETURN   
- coalesce(p.participant_id,'') as `Participant ID`,
- coalesce(s.study_name, '') as `Study Name`,
- coalesce(s.phs_accession,'') as `Accession`,
- coalesce(p.gender,'') as `Gender`,
- coalesce(apoc.text.join(samp, ','), '') as `Samples`
- ORDER By p.participant_id LIMIT 100</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;--(p:participant)
-WHERE s.study_name in ["Childhood Cancer Data Initiative (CCDI): Free the Data: Open Sharing of Comprehensive Genomic Childhood Cancer Datasets (Kansas)"]
-OPTIONAL MATCH (p)&lt;--(samp:sample)
 OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp)&lt;--(f:file)
 WITH DISTINCT p,s,samp,f,diag
@@ -116,6 +103,26 @@
   </si>
   <si>
     <t>ParticipantsTab</t>
+  </si>
+  <si>
+    <t>MATCH (p:participant)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp)&lt;--(f:file)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+WITH s, p, samp, f, g, diag
+WHERE s.study_name in ["Childhood Cancer Data Initiative (CCDI): Free the Data: Open Sharing of Comprehensive Genomic Childhood Cancer Datasets (Kansas)"]
+OPTIONAL MATCH (p)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+WITH s, p, apoc.coll.sort(collect(distinct samp.sample_id)) as samp
+RETURN 
+coalesce(p.participant_id,'') as `Participant ID`,
+coalesce(s.study_name, '') as `Study Name`,
+coalesce(s.phs_accession,'') as `Accession`,
+coalesce(p.gender,'') as `Gender`,
+coalesce(apoc.text.join(samp, ','), '') as `Samples`
+ORDER BY p.participant_id
+LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -498,7 +505,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,12 +534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -549,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -566,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
